--- a/Files/Academic Program - B.S. Computer Science and Technology @ITESM.xlsx
+++ b/Files/Academic Program - B.S. Computer Science and Technology @ITESM.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mauro/Dropbox/mauro94.github.io/Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28940" yWindow="3920" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="5420" yWindow="1960" windowWidth="19960" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -360,7 +368,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,7 +380,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +387,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -404,6 +413,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF26FF00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -732,10 +751,10 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
@@ -745,34 +764,34 @@
     <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -782,7 +801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -792,8 +811,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -802,355 +821,355 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1">
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1">
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1">
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1">
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1">
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1">
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="1" customFormat="1">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1">
+    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1">
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42" spans="1:2" s="1" customFormat="1">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1">
+    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1">
-      <c r="A45" s="6"/>
+    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1">
+    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1">
+    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1">
+    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1">
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1">
+    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1">
+    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1">
-      <c r="A56" s="6"/>
+    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1">
+    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1">
+    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1">
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="1" customFormat="1">
+    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="1" customFormat="1">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="12"/>
-    </row>
-    <row r="64" spans="1:2" s="1" customFormat="1">
-      <c r="A64" s="8"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="1" customFormat="1">
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="1" customFormat="1">
+    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="1" customFormat="1">
+    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="1" customFormat="1">
+    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="1" customFormat="1">
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1">
+    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="1" customFormat="1">
+    <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="1" customFormat="1">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="12"/>
-    </row>
-    <row r="75" spans="1:2" s="1" customFormat="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="1" customFormat="1">
+    <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="1" customFormat="1">
+    <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="1" customFormat="1">
+    <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="1" customFormat="1">
+    <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="1" customFormat="1">
+    <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>62</v>
@@ -1170,10 +1189,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>